--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.4899016997331</v>
+        <v>169.1478385180558</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.4373079630072</v>
+        <v>231.4355349362735</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.7892561153658</v>
+        <v>209.3476523038357</v>
       </c>
       <c r="AD2" t="n">
-        <v>127489.9016997331</v>
+        <v>169147.8385180558</v>
       </c>
       <c r="AE2" t="n">
-        <v>174437.3079630072</v>
+        <v>231435.5349362735</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.562033986603925e-06</v>
+        <v>4.331245572747396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.907986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>157789.2561153658</v>
+        <v>209347.6523038357</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.0586788143615</v>
+        <v>133.3874722826752</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.6411868648885</v>
+        <v>182.5066242170359</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.3140279781778</v>
+        <v>165.088448151469</v>
       </c>
       <c r="AD3" t="n">
-        <v>102058.6788143615</v>
+        <v>133387.4722826752</v>
       </c>
       <c r="AE3" t="n">
-        <v>139641.1868648885</v>
+        <v>182506.6242170359</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.096367796916481e-06</v>
+        <v>5.234563390694549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.545138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>126314.0279781778</v>
+        <v>165088.448151469</v>
       </c>
     </row>
     <row r="4">
@@ -1864,28 +1864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.2324420580206</v>
+        <v>133.5612355263343</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.8789374007561</v>
+        <v>182.7443747529034</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.5290879365872</v>
+        <v>165.3035081098784</v>
       </c>
       <c r="AD4" t="n">
-        <v>102232.4420580206</v>
+        <v>133561.2355263343</v>
       </c>
       <c r="AE4" t="n">
-        <v>139878.9374007561</v>
+        <v>182744.3747529034</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.093870255517589e-06</v>
+        <v>5.230341173041205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.545138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>126529.0879365872</v>
+        <v>165303.5081098784</v>
       </c>
     </row>
   </sheetData>
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.6361368616675</v>
+        <v>143.9079299017986</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.4819757266061</v>
+        <v>196.9011784613468</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.6429941836249</v>
+        <v>178.1092063415913</v>
       </c>
       <c r="AD2" t="n">
-        <v>113636.1368616675</v>
+        <v>143907.9299017986</v>
       </c>
       <c r="AE2" t="n">
-        <v>155481.9757266061</v>
+        <v>196901.1784613468</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.960839400196273e-06</v>
+        <v>5.127555047861545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>140642.9941836249</v>
+        <v>178109.2063415913</v>
       </c>
     </row>
     <row r="3">
@@ -2267,28 +2267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.33185539443582</v>
+        <v>127.5183075799952</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.1737385290177</v>
+        <v>174.4761741415608</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.4638238343597</v>
+        <v>157.8244129603873</v>
       </c>
       <c r="AD3" t="n">
-        <v>97331.85539443581</v>
+        <v>127518.3075799952</v>
       </c>
       <c r="AE3" t="n">
-        <v>133173.7385290177</v>
+        <v>174476.1741415609</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.234612007596578e-06</v>
+        <v>5.601671987452591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>120463.8238343597</v>
+        <v>157824.4129603873</v>
       </c>
     </row>
   </sheetData>
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.83993317252968</v>
+        <v>122.216054768819</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.4499835571866</v>
+        <v>167.2213979264284</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.2407219686064</v>
+        <v>151.2620224050824</v>
       </c>
       <c r="AD2" t="n">
-        <v>85839.93317252968</v>
+        <v>122216.054768819</v>
       </c>
       <c r="AE2" t="n">
-        <v>117449.9835571866</v>
+        <v>167221.3979264284</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.475013324479365e-06</v>
+        <v>6.575472997057672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.727430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>106240.7219686064</v>
+        <v>151262.0224050824</v>
       </c>
     </row>
   </sheetData>
@@ -2861,28 +2861,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.20394626918682</v>
+        <v>117.6085872600832</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.0527746858142</v>
+        <v>160.9172576138586</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.4042291719772</v>
+        <v>145.5595403960258</v>
       </c>
       <c r="AD2" t="n">
-        <v>89203.94626918681</v>
+        <v>117608.5872600832</v>
       </c>
       <c r="AE2" t="n">
-        <v>122052.7746858142</v>
+        <v>160917.2576138586</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.46612789546363e-06</v>
+        <v>6.314532269971329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>110404.2291719772</v>
+        <v>145559.5403960258</v>
       </c>
     </row>
   </sheetData>
@@ -3158,28 +3158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.91966128136116</v>
+        <v>118.3277006911138</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.7685357743599</v>
+        <v>161.9011803352396</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.7653632373367</v>
+        <v>146.4495589138228</v>
       </c>
       <c r="AD2" t="n">
-        <v>91919.66128136116</v>
+        <v>118327.7006911138</v>
       </c>
       <c r="AE2" t="n">
-        <v>125768.5357743599</v>
+        <v>161901.1803352397</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.440492876569789e-06</v>
+        <v>6.742257509662942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.057291666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>113765.3632373367</v>
+        <v>146449.5589138228</v>
       </c>
     </row>
   </sheetData>
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.7250385178041</v>
+        <v>146.252247496403</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.3401031283677</v>
+        <v>200.108777218276</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.2283459175703</v>
+        <v>181.0106763750533</v>
       </c>
       <c r="AD2" t="n">
-        <v>115725.0385178041</v>
+        <v>146252.247496403</v>
       </c>
       <c r="AE2" t="n">
-        <v>158340.1031283677</v>
+        <v>200108.777218276</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.901530686624948e-06</v>
+        <v>4.992029018711474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>143228.3459175703</v>
+        <v>181010.6763750533</v>
       </c>
     </row>
     <row r="3">
@@ -3561,28 +3561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.79466588998133</v>
+        <v>129.4071262146008</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.1752203836666</v>
+        <v>177.060539126224</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.2742870698989</v>
+        <v>160.1621297780941</v>
       </c>
       <c r="AD3" t="n">
-        <v>98794.66588998133</v>
+        <v>129407.1262146008</v>
       </c>
       <c r="AE3" t="n">
-        <v>135175.2203836665</v>
+        <v>177060.539126224</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.188709311237832e-06</v>
+        <v>5.486114445493132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>122274.2870698989</v>
+        <v>160162.1297780941</v>
       </c>
     </row>
   </sheetData>
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.59581138812794</v>
+        <v>124.8951211192204</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.9571859463038</v>
+        <v>170.8870146991115</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.1268860946243</v>
+        <v>154.5777978577073</v>
       </c>
       <c r="AD2" t="n">
-        <v>90595.81138812794</v>
+        <v>124895.1211192204</v>
       </c>
       <c r="AE2" t="n">
-        <v>123957.1859463038</v>
+        <v>170887.0146991115</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.352719083790618e-06</v>
+        <v>6.721063101166261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.413194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>112126.8860946243</v>
+        <v>154577.7978577073</v>
       </c>
     </row>
   </sheetData>
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.40134359580087</v>
+        <v>123.9294396833169</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.1640830010713</v>
+        <v>169.5657267556508</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.8368442024124</v>
+        <v>153.3826117811308</v>
       </c>
       <c r="AD2" t="n">
-        <v>94401.34359580086</v>
+        <v>123929.4396833169</v>
       </c>
       <c r="AE2" t="n">
-        <v>129164.0830010713</v>
+        <v>169565.7267556508</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.293568812035634e-06</v>
+        <v>5.833155101003044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.553819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>116836.8442024124</v>
+        <v>153382.6117811308</v>
       </c>
     </row>
     <row r="3">
@@ -4261,28 +4261,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.73572866905431</v>
+        <v>123.0932325559782</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.253359293439</v>
+        <v>168.4215912731717</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.0130386872274</v>
+        <v>152.3476709832949</v>
       </c>
       <c r="AD3" t="n">
-        <v>93735.72866905431</v>
+        <v>123093.2325559782</v>
       </c>
       <c r="AE3" t="n">
-        <v>128253.359293439</v>
+        <v>168421.5912731717</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.334891734957003e-06</v>
+        <v>5.906341068075084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>116013.0386872275</v>
+        <v>152347.6709832949</v>
       </c>
     </row>
   </sheetData>
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.1639402431538</v>
+        <v>142.1706048331814</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.4676513644256</v>
+        <v>194.5240936570933</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.8209141114483</v>
+        <v>175.9589871747955</v>
       </c>
       <c r="AD2" t="n">
-        <v>112163.9402431538</v>
+        <v>142170.6048331814</v>
       </c>
       <c r="AE2" t="n">
-        <v>153467.6513644256</v>
+        <v>194524.0936570933</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.001833088924253e-06</v>
+        <v>5.234934789406956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>138820.9141114483</v>
+        <v>175958.9871747955</v>
       </c>
     </row>
     <row r="3">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.36320242497712</v>
+        <v>126.4551183610253</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.848384802252</v>
+        <v>173.0214717475689</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.2649600071304</v>
+        <v>156.5085453211898</v>
       </c>
       <c r="AD3" t="n">
-        <v>96363.20242497712</v>
+        <v>126455.1183610253</v>
       </c>
       <c r="AE3" t="n">
-        <v>131848.384802252</v>
+        <v>173021.4717475689</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.249978904083646e-06</v>
+        <v>5.667679423149793e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>119264.9600071304</v>
+        <v>156508.5453211899</v>
       </c>
     </row>
   </sheetData>
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.0955845228315</v>
+        <v>164.4452858182284</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.4248093379819</v>
+        <v>225.0012948703897</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.3505819205162</v>
+        <v>203.5274870793252</v>
       </c>
       <c r="AD2" t="n">
-        <v>123095.5845228315</v>
+        <v>164445.2858182284</v>
       </c>
       <c r="AE2" t="n">
-        <v>168424.8093379819</v>
+        <v>225001.2948703897</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.679733092586075e-06</v>
+        <v>4.555368654390896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.621527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>152350.5819205162</v>
+        <v>203527.4870793252</v>
       </c>
     </row>
     <row r="3">
@@ -5067,28 +5067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.4316270842382</v>
+        <v>132.5292439103575</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.7832270241644</v>
+        <v>181.3323582956679</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.5379506204979</v>
+        <v>164.0262525215435</v>
       </c>
       <c r="AD3" t="n">
-        <v>101431.6270842382</v>
+        <v>132529.2439103575</v>
       </c>
       <c r="AE3" t="n">
-        <v>138783.2270241644</v>
+        <v>181332.3582956679</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.107050467602961e-06</v>
+        <v>5.281779870871405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.571180555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>125537.9506204979</v>
+        <v>164026.2525215435</v>
       </c>
     </row>
   </sheetData>
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.86134119309118</v>
+        <v>119.6005289305322</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.3204955398026</v>
+        <v>163.6427200856298</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.4555219304278</v>
+        <v>148.0248885547027</v>
       </c>
       <c r="AD2" t="n">
-        <v>90861.34119309118</v>
+        <v>119600.5289305322</v>
       </c>
       <c r="AE2" t="n">
-        <v>124320.4955398025</v>
+        <v>163642.7200856298</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.413813624728888e-06</v>
+        <v>6.155913810045935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>112455.5219304278</v>
+        <v>148024.8885547027</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.08716557485681</v>
+        <v>124.0087067181897</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.1565019540599</v>
+        <v>169.6741834097784</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.7843726447963</v>
+        <v>153.4807174844084</v>
       </c>
       <c r="AD2" t="n">
-        <v>87087.16557485682</v>
+        <v>124008.7067181897</v>
       </c>
       <c r="AE2" t="n">
-        <v>119156.5019540599</v>
+        <v>169674.1834097784</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.473125027825449e-06</v>
+        <v>6.47974114272936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>107784.3726447963</v>
+        <v>153480.7174844083</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.29437043022462</v>
+        <v>120.0763201616233</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.33527642775</v>
+        <v>164.2937186384361</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.3278395195925</v>
+        <v>148.6137567193115</v>
       </c>
       <c r="AD2" t="n">
-        <v>84294.37043022462</v>
+        <v>120076.3201616233</v>
       </c>
       <c r="AE2" t="n">
-        <v>115335.27642775</v>
+        <v>164293.7186384361</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.482170989465432e-06</v>
+        <v>6.69634394420514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.840277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>104327.8395195925</v>
+        <v>148613.7567193115</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.96999717091714</v>
+        <v>131.4930128253066</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.0468722604273</v>
+        <v>179.9145412098129</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.2536269078947</v>
+        <v>162.7437499084433</v>
       </c>
       <c r="AD2" t="n">
-        <v>97969.99717091714</v>
+        <v>131493.0128253066</v>
       </c>
       <c r="AE2" t="n">
-        <v>134046.8722604272</v>
+        <v>179914.5412098129</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.17141645231766e-06</v>
+        <v>6.541361422309042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>121253.6269078947</v>
+        <v>162743.7499084433</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.74327540295506</v>
+        <v>138.2988384291325</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.104905652129</v>
+        <v>189.2265720527977</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.2106830776519</v>
+        <v>171.1670535972939</v>
       </c>
       <c r="AD2" t="n">
-        <v>98743.27540295507</v>
+        <v>138298.8384291325</v>
       </c>
       <c r="AE2" t="n">
-        <v>135104.905652129</v>
+        <v>189226.5720527977</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.119321122965229e-06</v>
+        <v>5.480524162769826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>122210.6830776519</v>
+        <v>171167.0535972939</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.01660219913998</v>
+        <v>124.6620287636812</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.0059069654534</v>
+        <v>170.5680874549539</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.5983256691414</v>
+        <v>154.2893085821148</v>
       </c>
       <c r="AD3" t="n">
-        <v>95016.60219913998</v>
+        <v>124662.0287636812</v>
       </c>
       <c r="AE3" t="n">
-        <v>130005.9069654534</v>
+        <v>170568.0874549539</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.298917877517461e-06</v>
+        <v>5.796068575825602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>117598.3256691414</v>
+        <v>154289.3085821148</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.8530538915839</v>
+        <v>159.7140887806534</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.6199917610699</v>
+        <v>218.5278623579006</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.0997679860302</v>
+        <v>197.6718698803064</v>
       </c>
       <c r="AD2" t="n">
-        <v>118853.0538915839</v>
+        <v>159714.0887806534</v>
       </c>
       <c r="AE2" t="n">
-        <v>162619.9917610699</v>
+        <v>218527.8623579006</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.804414555382272e-06</v>
+        <v>4.795236359027598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>147099.7679860302</v>
+        <v>197671.8698803064</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.98983045127189</v>
+        <v>130.8488916230898</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.8104972633626</v>
+        <v>179.0332261643184</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.7534954193228</v>
+        <v>161.946546333957</v>
       </c>
       <c r="AD3" t="n">
-        <v>99989.83045127189</v>
+        <v>130848.8916230898</v>
       </c>
       <c r="AE3" t="n">
-        <v>136810.4972633626</v>
+        <v>179033.2261643184</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.151849660098191e-06</v>
+        <v>5.38931166909146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>123753.4954193228</v>
+        <v>161946.546333957</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.7897487415324</v>
+        <v>146.4793910752681</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.7462013424293</v>
+        <v>200.4195650837465</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.9318270389165</v>
+        <v>181.2918030828369</v>
       </c>
       <c r="AD2" t="n">
-        <v>105789.7487415324</v>
+        <v>146479.3910752681</v>
       </c>
       <c r="AE2" t="n">
-        <v>144746.2013424293</v>
+        <v>200419.5650837465</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.764048342607343e-06</v>
+        <v>5.924628692509043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.574652777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>130931.8270389165</v>
+        <v>181291.8030828369</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.44155649916354</v>
+        <v>116.661629278973</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.009639368206</v>
+        <v>159.6215879272665</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.4606492250315</v>
+        <v>144.3875276058378</v>
       </c>
       <c r="AD2" t="n">
-        <v>88441.55649916353</v>
+        <v>116661.629278973</v>
       </c>
       <c r="AE2" t="n">
-        <v>121009.639368206</v>
+        <v>159621.5879272665</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.457852497222097e-06</v>
+        <v>6.370859942472697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>109460.6492250315</v>
+        <v>144387.5276058378</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.26532853297851</v>
+        <v>121.3213699096647</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.2414929577854</v>
+        <v>165.9972506314237</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.1931820509758</v>
+        <v>150.1547060098111</v>
       </c>
       <c r="AD2" t="n">
-        <v>92265.32853297851</v>
+        <v>121321.3699096647</v>
       </c>
       <c r="AE2" t="n">
-        <v>126241.4929577854</v>
+        <v>165997.2506314237</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.373067347959933e-06</v>
+        <v>6.025738656475104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>114193.1820509758</v>
+        <v>150154.7060098111</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.39737833884236</v>
+        <v>121.4534197155285</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.4221693277945</v>
+        <v>166.1779270014328</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.3566149218122</v>
+        <v>150.3181388806475</v>
       </c>
       <c r="AD3" t="n">
-        <v>92397.37833884236</v>
+        <v>121453.4197155285</v>
       </c>
       <c r="AE3" t="n">
-        <v>126422.1693277945</v>
+        <v>166177.9270014328</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.374576685416511e-06</v>
+        <v>6.028434977692428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>114356.6149218122</v>
+        <v>150318.1388806475</v>
       </c>
     </row>
   </sheetData>
